--- a/proto-packer/Tool.xlsx
+++ b/proto-packer/Tool.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,11 +609,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -747,6 +747,46 @@
         <v>30</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
